--- a/output/fit_clients/fit_round_304.xlsx
+++ b/output/fit_clients/fit_round_304.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1907300807.884429</v>
+        <v>1915518366.870384</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113856403940841</v>
+        <v>0.1108375485150502</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03338531589195303</v>
+        <v>0.03137380816683185</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>953650387.1042523</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1890273202.59364</v>
+        <v>2050333806.458975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1828168579360784</v>
+        <v>0.1202245305119452</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04459555269816407</v>
+        <v>0.03046063207706815</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>945136624.3611693</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4673455660.4691</v>
+        <v>4051437857.134169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1094772793036135</v>
+        <v>0.107359735906069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03128672051815685</v>
+        <v>0.03816028048704798</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2336727892.132098</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3201182693.182783</v>
+        <v>2655900166.436717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08722313590829794</v>
+        <v>0.09802787240556458</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0331033042255986</v>
+        <v>0.0390326832272938</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>113</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1600591403.156242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2813323777.239713</v>
+        <v>1737595626.879103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1466212130731878</v>
+        <v>0.139192474962304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04648070947803365</v>
+        <v>0.05102595309097709</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1406661830.19838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2901793776.263995</v>
+        <v>3155535078.966016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0707992416994937</v>
+        <v>0.08656727191772767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03601420314570941</v>
+        <v>0.03823221517688639</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1450896862.490557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3838830184.392854</v>
+        <v>3331928908.060067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1343232151286399</v>
+        <v>0.1818958843883011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02111589747947526</v>
+        <v>0.02946461855790435</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>96</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1919415235.461198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2288407915.486687</v>
+        <v>1448981700.954638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1514652023925205</v>
+        <v>0.1971114833331492</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03418585694953814</v>
+        <v>0.03115455219343247</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1144203944.33128</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4210463515.412918</v>
+        <v>3587586877.201259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690144164430763</v>
+        <v>0.1309898035487544</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0364877696888721</v>
+        <v>0.05220758124720816</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>128</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2105231795.893371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2618182642.590958</v>
+        <v>2696913006.070636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1895966643872317</v>
+        <v>0.1528989596554946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03521148842614021</v>
+        <v>0.03563868358929541</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>125</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1309091237.586924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3241749991.773018</v>
+        <v>2515201395.310162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264371883510046</v>
+        <v>0.1978112798663588</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05071082536894632</v>
+        <v>0.04177783887915052</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>104</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1620875036.05011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5181740827.01484</v>
+        <v>4841910079.569456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09352625395470975</v>
+        <v>0.1011608972620736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02548484986243316</v>
+        <v>0.02344884224419728</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>102</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2590870408.41676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3639815124.765111</v>
+        <v>2848620392.273129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1593667434365743</v>
+        <v>0.1862499121377646</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03031325156708824</v>
+        <v>0.03996587733842265</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1819907550.495222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1846615144.02634</v>
+        <v>1661083643.395969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08207063709024909</v>
+        <v>0.09739641235067219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04044394997155018</v>
+        <v>0.0392124709410482</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>923307736.098026</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2548231044.457251</v>
+        <v>2178779948.603222</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0751404668020252</v>
+        <v>0.07618818532915342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04551233040549189</v>
+        <v>0.04089816114739524</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1274115548.737667</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3975734628.447495</v>
+        <v>4752630610.639052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1450701992425479</v>
+        <v>0.1701262576191533</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03805722041773658</v>
+        <v>0.04243285734702382</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>89</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1987867350.034</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3182282803.077312</v>
+        <v>3072314727.257834</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1617687509732262</v>
+        <v>0.1388039770739312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0315536599353807</v>
+        <v>0.03095989874497321</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>99</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1591141418.564462</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1168475001.167254</v>
+        <v>886632380.6512223</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1558152729023248</v>
+        <v>0.1442525489315414</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0222981084829864</v>
+        <v>0.02737863856526397</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>584237570.820302</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2270110255.668585</v>
+        <v>2357797658.343092</v>
       </c>
       <c r="F20" t="n">
-        <v>0.104546460993083</v>
+        <v>0.1506864245187497</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02800019221731869</v>
+        <v>0.0272366545789319</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1135055125.398067</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2078607077.421824</v>
+        <v>2678729061.471344</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06380527445334118</v>
+        <v>0.09703750812611273</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03811423151098887</v>
+        <v>0.04206844634619251</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1039303567.158349</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3871568876.587763</v>
+        <v>3838005477.929211</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1266586348859292</v>
+        <v>0.1263834413746753</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05097533267709039</v>
+        <v>0.04906261353833924</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1935784447.635925</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1081583261.955528</v>
+        <v>1246591834.240166</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1120494679209094</v>
+        <v>0.1518174590233163</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04663059582327974</v>
+        <v>0.04360660229681435</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>540791687.4216012</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3827714349.299605</v>
+        <v>3522518925.526546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1375041859116441</v>
+        <v>0.1295189727174496</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03538490793589974</v>
+        <v>0.03108914358857469</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>89</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1913857154.216118</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1030170853.44664</v>
+        <v>1113524532.144185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1003176887268567</v>
+        <v>0.1226944813132608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02965313261735041</v>
+        <v>0.02206225111041199</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>515085483.7881217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1149711387.6449</v>
+        <v>927182216.8759534</v>
       </c>
       <c r="F26" t="n">
-        <v>0.106898265495332</v>
+        <v>0.1073512085209706</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02592319623230819</v>
+        <v>0.02716335965923898</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>574855702.5342433</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4411948618.272866</v>
+        <v>3646242164.974205</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09798398864363632</v>
+        <v>0.09822356306009303</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02671859984281556</v>
+        <v>0.01855443794843909</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>69</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2205974298.82833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2516570279.633837</v>
+        <v>3293871594.112051</v>
       </c>
       <c r="F28" t="n">
-        <v>0.102626628005399</v>
+        <v>0.1375438602634076</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04249215103664409</v>
+        <v>0.04646167552272625</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1258285109.06153</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4058088847.5321</v>
+        <v>4376244550.74775</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1316281707986256</v>
+        <v>0.09424639210204103</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03836067724967832</v>
+        <v>0.04420797881922474</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>134</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2029044436.636845</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1838602798.912105</v>
+        <v>1663304973.158327</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397515176011045</v>
+        <v>0.1333668059751903</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03581370113792329</v>
+        <v>0.03388899256053821</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>919301418.5685731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1288097165.157656</v>
+        <v>1210794847.912515</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08356966210309859</v>
+        <v>0.07626197753860148</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04549036166407992</v>
+        <v>0.03664870576591686</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>644048513.3141052</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1424737664.383686</v>
+        <v>1425513028.352887</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145341602486986</v>
+        <v>0.1124552066956166</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02979306839514393</v>
+        <v>0.03533983359719074</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>712368884.9540197</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2045427792.973324</v>
+        <v>2799085013.912671</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447607874391995</v>
+        <v>0.1370037121442965</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03805571841548328</v>
+        <v>0.05454619092500505</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1022713973.394319</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1314068389.129235</v>
+        <v>1390342267.15209</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1021551235238479</v>
+        <v>0.1175204459926017</v>
       </c>
       <c r="G34" t="n">
-        <v>0.017200478385185</v>
+        <v>0.02632295152755067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>657034180.8847368</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>985858039.3874737</v>
+        <v>1304850592.606909</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08610627833576734</v>
+        <v>0.08185494588503688</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04243840969103689</v>
+        <v>0.03666443820279847</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>492929041.3641744</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2253786573.752745</v>
+        <v>2159836119.664151</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1396003318368295</v>
+        <v>0.1533483359034763</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02661064763483089</v>
+        <v>0.01864096737672637</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1126893328.599051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1813891423.086659</v>
+        <v>2476062142.517765</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07254758037061522</v>
+        <v>0.08780577636296079</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03996924048091856</v>
+        <v>0.04089040169441357</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>79</v>
-      </c>
-      <c r="J37" t="n">
-        <v>906945713.211236</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1902487021.018268</v>
+        <v>1506843787.274093</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025518944847395</v>
+        <v>0.07754456586382091</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03672020856746147</v>
+        <v>0.02514260276635165</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>951243502.9127994</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1689448686.067454</v>
+        <v>2015556302.346001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183320054905653</v>
+        <v>0.140663461508255</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02056021448881134</v>
+        <v>0.03230589966007779</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>844724384.7086791</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1800837909.482417</v>
+        <v>1140982394.817523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1628151379437088</v>
+        <v>0.1228707317748833</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04396706734935923</v>
+        <v>0.05728327007404078</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>900418845.631013</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2636385411.522027</v>
+        <v>2265899499.458695</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1049805340839435</v>
+        <v>0.1538127317079103</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02926953102928916</v>
+        <v>0.03338341278705069</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1318192717.670367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3337434603.179203</v>
+        <v>3637960531.958321</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1063206820170738</v>
+        <v>0.07975605885874169</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03062085463335419</v>
+        <v>0.04463143780264495</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1668717285.261688</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2123517665.687455</v>
+        <v>2404127039.528741</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1967714569332243</v>
+        <v>0.1817086995367212</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02215456247655076</v>
+        <v>0.01812569924922544</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1061758919.371694</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1569608789.902466</v>
+        <v>2185586818.912628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07333439681406767</v>
+        <v>0.09742445611681447</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02737942673518668</v>
+        <v>0.03083583470964311</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>784804415.4152369</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2324852575.345354</v>
+        <v>1927481388.635863</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1676787967576648</v>
+        <v>0.1200078678466387</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04373497319408004</v>
+        <v>0.04182540468794024</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1162426311.285844</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4055672715.050364</v>
+        <v>5321101281.809952</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1220900926654202</v>
+        <v>0.178659595046092</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06105424731570117</v>
+        <v>0.05208262860559899</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>108</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2027836330.284885</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4008187706.986341</v>
+        <v>4006292987.83942</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1585950902450456</v>
+        <v>0.1417064517130899</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05806691439771582</v>
+        <v>0.0439997667072996</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2004093853.100442</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3658932926.856744</v>
+        <v>4166112225.490379</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07596929235827356</v>
+        <v>0.07885242276001074</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02455786079477774</v>
+        <v>0.03359449803434318</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1829466517.604366</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1337910286.054689</v>
+        <v>1533232137.228536</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1308350493099689</v>
+        <v>0.1186016907017915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03424638225029138</v>
+        <v>0.04461227626473225</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>668955200.2609106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3458168363.217673</v>
+        <v>3847646721.496653</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1295824579042034</v>
+        <v>0.1642962294314292</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04202133981441383</v>
+        <v>0.03278490168232615</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>103</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1729084208.833067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1473839625.066236</v>
+        <v>1444420032.817335</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1553000333992477</v>
+        <v>0.1792723672716366</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05225269042851041</v>
+        <v>0.03298512183124141</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>736919819.7075577</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3206488786.4696</v>
+        <v>5047509411.823067</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190356243658139</v>
+        <v>0.1109789533534817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04794259880593088</v>
+        <v>0.04595712159596204</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>125</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1603244496.420354</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3744822571.340497</v>
+        <v>3117639761.810833</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1290696902144932</v>
+        <v>0.1326607054354873</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03056336733364606</v>
+        <v>0.02964374802683212</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>87</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1872411266.69159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3348194194.388614</v>
+        <v>3977952871.592637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1474853710275974</v>
+        <v>0.121986486992751</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03834632049403095</v>
+        <v>0.04694473444947806</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>100</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1674097110.062159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4644416837.204793</v>
+        <v>4266172700.323618</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1512286624755056</v>
+        <v>0.1520623680948938</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01968638107281873</v>
+        <v>0.02666277817464982</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2322208421.953843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1483260187.945261</v>
+        <v>1702203009.400443</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1405802272627715</v>
+        <v>0.1243965774904679</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05268759761900924</v>
+        <v>0.0408247097171452</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>741630138.7324468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4048326324.344456</v>
+        <v>2866683315.351988</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1297628809859363</v>
+        <v>0.1329862088208549</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02186198961015353</v>
+        <v>0.02312066007823323</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2024163254.600699</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1741017636.399335</v>
+        <v>1710946856.070943</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1826765613053971</v>
+        <v>0.1724681779375054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02649638527170938</v>
+        <v>0.02935129854893883</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>870508827.3358234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4649792426.874142</v>
+        <v>4080856582.074955</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09058757995590924</v>
+        <v>0.08904742915328989</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03532521149254594</v>
+        <v>0.03320696181706802</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2324896158.028412</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2605821880.533656</v>
+        <v>2340785940.153348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1557521781023775</v>
+        <v>0.1302609225405661</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02015319289567411</v>
+        <v>0.02945144577476319</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1302910969.271487</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2496507386.470982</v>
+        <v>3211497344.523423</v>
       </c>
       <c r="F61" t="n">
-        <v>0.162121310107834</v>
+        <v>0.1610968038992056</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02739309622518814</v>
+        <v>0.02598161688306438</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1248253721.186162</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1564372364.023433</v>
+        <v>1780913992.978821</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1606612071063653</v>
+        <v>0.1372408273572314</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0319284498814489</v>
+        <v>0.04208812641033417</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>782186174.7403151</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4283184484.361157</v>
+        <v>3563553240.231564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1054533191382732</v>
+        <v>0.0739189149390425</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0394481248172297</v>
+        <v>0.03958190151137613</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2141592291.921061</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3539515327.337091</v>
+        <v>4957995554.289036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1847519609393308</v>
+        <v>0.1423436049999319</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02906382014852743</v>
+        <v>0.03543248485450936</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>94</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1769757667.140562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4931444634.909501</v>
+        <v>4868500368.28681</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1516476855841184</v>
+        <v>0.1719917008847904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03160460311606909</v>
+        <v>0.02082993814253607</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>109</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2465722280.4628</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3489687956.333993</v>
+        <v>4183388117.678781</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1018555009969543</v>
+        <v>0.1563996295839502</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04963430167814089</v>
+        <v>0.04644424198946454</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>88</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1744843924.410311</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2728819786.012155</v>
+        <v>2917773512.778074</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09415635868621647</v>
+        <v>0.07591502890537416</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03418161974007014</v>
+        <v>0.0354344635271539</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>97</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1364409934.264728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3852998730.84827</v>
+        <v>4941111912.416244</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1099466224550487</v>
+        <v>0.1035906521054275</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03659490807980813</v>
+        <v>0.03153328845889324</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1926499352.302756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1969083668.228222</v>
+        <v>1897786141.04724</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1549915637882839</v>
+        <v>0.1536017115703651</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03962838494974511</v>
+        <v>0.05449121207102293</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>984541835.0734646</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2435320105.068133</v>
+        <v>3213052905.353051</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0904454608926879</v>
+        <v>0.08919831350783586</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04677595835299971</v>
+        <v>0.04900848356344514</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>87</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1217659992.850642</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3824076457.465321</v>
+        <v>4364866867.33124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1138779153935106</v>
+        <v>0.1801612668557504</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02377960027151258</v>
+        <v>0.0227461225780058</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1912038246.636158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1983140565.584283</v>
+        <v>1622882408.508692</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06679987739482211</v>
+        <v>0.07948084932163589</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04204129518443713</v>
+        <v>0.0454171510939789</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>991570231.8293421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3107161211.151133</v>
+        <v>3005987969.599389</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08151310149407383</v>
+        <v>0.07980062929288903</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0467784367200529</v>
+        <v>0.04049545923437421</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>116</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1553580591.744018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2473884638.727056</v>
+        <v>2913874495.843826</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1776914198042478</v>
+        <v>0.1471746784320071</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02836023442157853</v>
+        <v>0.03092484653449552</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>103</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1236942430.260076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1985331268.11112</v>
+        <v>2359470742.975495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1597994397090466</v>
+        <v>0.1202522565861262</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02771699905746634</v>
+        <v>0.0257551146112223</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>992665599.5867379</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3409437428.824699</v>
+        <v>4837095153.867882</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08053624375761899</v>
+        <v>0.09430128048276983</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03070806885922306</v>
+        <v>0.02338641832804715</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1704718674.394706</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1637610813.293952</v>
+        <v>1963501667.570687</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1143185982281228</v>
+        <v>0.1528785459951938</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02873192179295688</v>
+        <v>0.02976291275645239</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>818805414.6523321</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3344129341.382705</v>
+        <v>3625547843.997527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1223291235298092</v>
+        <v>0.1284577083602414</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0348285843225221</v>
+        <v>0.03558105682975957</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>105</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1672064683.372164</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1886132539.820307</v>
+        <v>1393556540.288675</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1761425431548074</v>
+        <v>0.1493233908655123</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03715316247558109</v>
+        <v>0.02720255599215475</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>943066371.6283122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4894911527.251184</v>
+        <v>4542822318.237605</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09697611289506651</v>
+        <v>0.1002388969059198</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02958643203436233</v>
+        <v>0.02568958988006053</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2447455807.594959</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4312318689.386174</v>
+        <v>3885159534.074995</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09779758439631082</v>
+        <v>0.1192263902946424</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02636097735320178</v>
+        <v>0.02905675070452135</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2156159319.513798</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4047627797.339084</v>
+        <v>4868801151.266509</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1634493271076249</v>
+        <v>0.216730459483636</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01826077191720687</v>
+        <v>0.0206811477899269</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>107</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2023813935.745317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683182271.126796</v>
+        <v>1913258318.116646</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1291782897136495</v>
+        <v>0.1513289114935033</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03001844488635902</v>
+        <v>0.03472365974215018</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>841591081.4741763</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2574107232.10302</v>
+        <v>2549775602.403368</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1198205784998723</v>
+        <v>0.1066443109809612</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03644393109643525</v>
+        <v>0.04243370088712865</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1287053536.969165</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2745349198.947425</v>
+        <v>2449518606.240501</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1820752150213513</v>
+        <v>0.1333505107688333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03889617740217726</v>
+        <v>0.04374839132539667</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>115</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1372674631.533343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2522454090.25698</v>
+        <v>2103508527.410937</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1167174070019095</v>
+        <v>0.1058510614522385</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01882460512565299</v>
+        <v>0.01860778397341929</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1261227145.407998</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1047188573.438288</v>
+        <v>1031989629.090626</v>
       </c>
       <c r="F87" t="n">
-        <v>0.162580878643584</v>
+        <v>0.1185187727592532</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03036647787867021</v>
+        <v>0.0399998876077453</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>523594303.1391184</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2673001177.500365</v>
+        <v>2886624176.992805</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1482791310633976</v>
+        <v>0.1347085017188041</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03010263320600651</v>
+        <v>0.03313500914027111</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>121</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1336500586.878031</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484163284.841482</v>
+        <v>2474266481.746882</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1362895763079582</v>
+        <v>0.1275597323070264</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03721581720160443</v>
+        <v>0.03941450429864863</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1242081718.343512</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1380053911.915471</v>
+        <v>2141330614.966814</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1349305963216482</v>
+        <v>0.08392776746754038</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04559467691492147</v>
+        <v>0.04664934782611711</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>690026912.7180053</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1596096156.643183</v>
+        <v>1533924567.049531</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1431511987216482</v>
+        <v>0.1862684874422566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06045549496776351</v>
+        <v>0.04110098611903664</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>798048104.4514731</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2136172890.983327</v>
+        <v>2169020906.236279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1048538333380268</v>
+        <v>0.08578194165114487</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03893489799513392</v>
+        <v>0.03321697289112509</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>78</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1068086401.941781</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3105827827.060203</v>
+        <v>3983741780.819746</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1018447475033156</v>
+        <v>0.1062653516119314</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04657546392558567</v>
+        <v>0.03966576550182066</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1552913971.977657</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1810939814.723358</v>
+        <v>2353206422.71925</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1563520865785109</v>
+        <v>0.1580817654501142</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03579823186300886</v>
+        <v>0.04245523709060287</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>905469881.160152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2444997929.064723</v>
+        <v>2432487647.300754</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127799557768954</v>
+        <v>0.1101248284459502</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05091155424583129</v>
+        <v>0.05049993660884169</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>73</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1222499004.617081</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2251199726.559383</v>
+        <v>2361060967.039619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1073391776748862</v>
+        <v>0.1146108438237678</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02877978811761438</v>
+        <v>0.04031084130854236</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1125599823.438542</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5149620746.498638</v>
+        <v>3661319349.944285</v>
       </c>
       <c r="F97" t="n">
-        <v>0.176783244057314</v>
+        <v>0.144567861748533</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02066155971939695</v>
+        <v>0.01849979860892335</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2574810522.076763</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2643355802.772889</v>
+        <v>2544538748.19349</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09444193045922157</v>
+        <v>0.100921710241813</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505274123430467</v>
+        <v>0.02865571852049541</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1321677861.924432</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3434055689.495046</v>
+        <v>2871944204.322148</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1439518251928468</v>
+        <v>0.09332457773342162</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03078374108792566</v>
+        <v>0.02924696569396066</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>97</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1717027862.19462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3438284835.54673</v>
+        <v>3941677733.320813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1375227593618656</v>
+        <v>0.1217980964075632</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02141518616510069</v>
+        <v>0.02352697819122694</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1719142443.614043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2184173687.39221</v>
+        <v>3121751302.287274</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1867235922498489</v>
+        <v>0.2070535688244153</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05768065502659648</v>
+        <v>0.03950785094808432</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>121</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1092086824.929492</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_304.xlsx
+++ b/output/fit_clients/fit_round_304.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1915518366.870384</v>
+        <v>1579398019.063947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108375485150502</v>
+        <v>0.09032743689689908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03137380816683185</v>
+        <v>0.03991822638535286</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2050333806.458975</v>
+        <v>1595967532.747496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1202245305119452</v>
+        <v>0.1236220468599904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03046063207706815</v>
+        <v>0.03529044697273192</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4051437857.134169</v>
+        <v>3717664217.157412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.107359735906069</v>
+        <v>0.1366206514855911</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03816028048704798</v>
+        <v>0.03016935163170218</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2655900166.436717</v>
+        <v>3875352620.572786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09802787240556458</v>
+        <v>0.07217999773717387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0390326832272938</v>
+        <v>0.03484679703786108</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1737595626.879103</v>
+        <v>2545332399.837436</v>
       </c>
       <c r="F6" t="n">
-        <v>0.139192474962304</v>
+        <v>0.09130867223205846</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05102595309097709</v>
+        <v>0.04888130243427314</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3155535078.966016</v>
+        <v>2828143776.077054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08656727191772767</v>
+        <v>0.08505411432106798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03823221517688639</v>
+        <v>0.04658388929344559</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3331928908.060067</v>
+        <v>3971618341.298102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1818958843883011</v>
+        <v>0.1874484843021068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02946461855790435</v>
+        <v>0.02768691459265202</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1448981700.954638</v>
+        <v>1408366810.889714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1971114833331492</v>
+        <v>0.1357878757932678</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03115455219343247</v>
+        <v>0.03047282377022768</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3587586877.201259</v>
+        <v>4448426202.728127</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1309898035487544</v>
+        <v>0.1837813698235451</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05220758124720816</v>
+        <v>0.04459453383771319</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2696913006.070636</v>
+        <v>3733897218.413359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1528989596554946</v>
+        <v>0.169819224038347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03563868358929541</v>
+        <v>0.03219071598457092</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2515201395.310162</v>
+        <v>2791696382.507799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1978112798663588</v>
+        <v>0.1224120124952959</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04177783887915052</v>
+        <v>0.04831395313884147</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4841910079.569456</v>
+        <v>3722613830.569237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011608972620736</v>
+        <v>0.06538864224475055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02344884224419728</v>
+        <v>0.02055732098148227</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2848620392.273129</v>
+        <v>3888387195.914791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862499121377646</v>
+        <v>0.1677805177786789</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03996587733842265</v>
+        <v>0.03089360290576188</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1661083643.395969</v>
+        <v>1411682929.533006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09739641235067219</v>
+        <v>0.0879611422944888</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0392124709410482</v>
+        <v>0.04796065743421559</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2178779948.603222</v>
+        <v>2354979462.680801</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07618818532915342</v>
+        <v>0.09260812218945393</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04089816114739524</v>
+        <v>0.03611311114182957</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4752630610.639052</v>
+        <v>3508919257.592175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1701262576191533</v>
+        <v>0.1256079238645471</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04243285734702382</v>
+        <v>0.03370130336855391</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3072314727.257834</v>
+        <v>3020017779.288575</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1388039770739312</v>
+        <v>0.1190438001919153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03095989874497321</v>
+        <v>0.03433584597005889</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>886632380.6512223</v>
+        <v>1357691956.082941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1442525489315414</v>
+        <v>0.1769046460980515</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02737863856526397</v>
+        <v>0.01658623542260201</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2357797658.343092</v>
+        <v>2773166930.448257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1506864245187497</v>
+        <v>0.1056288425078944</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0272366545789319</v>
+        <v>0.03079991538885649</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2678729061.471344</v>
+        <v>2670587969.280557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09703750812611273</v>
+        <v>0.07177425325381773</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04206844634619251</v>
+        <v>0.04496780066541855</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3838005477.929211</v>
+        <v>2907732293.763386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1263834413746753</v>
+        <v>0.1381745695226567</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04906261353833924</v>
+        <v>0.05345169607279188</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1246591834.240166</v>
+        <v>976166058.1789368</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1518174590233163</v>
+        <v>0.1678175407301085</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04360660229681435</v>
+        <v>0.0485901428726009</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3522518925.526546</v>
+        <v>4069140467.632879</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1295189727174496</v>
+        <v>0.1211789280524287</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03108914358857469</v>
+        <v>0.03021532021000712</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113524532.144185</v>
+        <v>915208737.1789188</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1226944813132608</v>
+        <v>0.1019555012642368</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02206225111041199</v>
+        <v>0.01915347006134837</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927182216.8759534</v>
+        <v>1002765911.631531</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1073512085209706</v>
+        <v>0.07809444967402539</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02716335965923898</v>
+        <v>0.02459267857885761</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3646242164.974205</v>
+        <v>2992682285.302335</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09822356306009303</v>
+        <v>0.1306285244219886</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01855443794843909</v>
+        <v>0.02157691548725522</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3293871594.112051</v>
+        <v>3882027492.961535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1375438602634076</v>
+        <v>0.1277148734897328</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04646167552272625</v>
+        <v>0.03435876256005141</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4376244550.74775</v>
+        <v>5457899888.614129</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09424639210204103</v>
+        <v>0.1400684408299849</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04420797881922474</v>
+        <v>0.0383492681988527</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1663304973.158327</v>
+        <v>1842295134.050155</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1333668059751903</v>
+        <v>0.1093817436002122</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03388899256053821</v>
+        <v>0.03941001301958492</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1210794847.912515</v>
+        <v>1261487457.869739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07626197753860148</v>
+        <v>0.07903272603121538</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03664870576591686</v>
+        <v>0.05236087313911181</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1425513028.352887</v>
+        <v>1313995601.979187</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1124552066956166</v>
+        <v>0.1162821371275849</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03533983359719074</v>
+        <v>0.03372272201423596</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2799085013.912671</v>
+        <v>3118089976.986077</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1370037121442965</v>
+        <v>0.1710545647683198</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05454619092500505</v>
+        <v>0.05949960565509278</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1390342267.15209</v>
+        <v>1540941260.111948</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1175204459926017</v>
+        <v>0.1012429982603644</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02632295152755067</v>
+        <v>0.02405676846154512</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1304850592.606909</v>
+        <v>1140065370.283852</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08185494588503688</v>
+        <v>0.09871771967898857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03666443820279847</v>
+        <v>0.03934258107195282</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2159836119.664151</v>
+        <v>2220384993.318659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1533483359034763</v>
+        <v>0.126072621443377</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01864096737672637</v>
+        <v>0.02435640890439086</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2476062142.517765</v>
+        <v>1898873748.217081</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08780577636296079</v>
+        <v>0.1118499448113798</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04089040169441357</v>
+        <v>0.03521683133625851</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1506843787.274093</v>
+        <v>1580203116.947093</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07754456586382091</v>
+        <v>0.09196631939753735</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02514260276635165</v>
+        <v>0.03234899977858794</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2015556302.346001</v>
+        <v>2202013257.706971</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140663461508255</v>
+        <v>0.1649318383502936</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03230589966007779</v>
+        <v>0.03192941463858642</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1140982394.817523</v>
+        <v>1530892440.658409</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1228707317748833</v>
+        <v>0.1337889517268354</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05728327007404078</v>
+        <v>0.03712375473689052</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2265899499.458695</v>
+        <v>2822134155.206684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1538127317079103</v>
+        <v>0.1041978750536105</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03338341278705069</v>
+        <v>0.04459357337416094</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3637960531.958321</v>
+        <v>3497074249.90596</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07975605885874169</v>
+        <v>0.127475200116946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04463143780264495</v>
+        <v>0.03304076921914204</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2404127039.528741</v>
+        <v>2490600719.285345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1817086995367212</v>
+        <v>0.2013353408372729</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01812569924922544</v>
+        <v>0.01807295865478891</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2185586818.912628</v>
+        <v>1663745461.117301</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09742445611681447</v>
+        <v>0.09060705489464251</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03083583470964311</v>
+        <v>0.03153727856414747</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1927481388.635863</v>
+        <v>1558055253.609924</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1200078678466387</v>
+        <v>0.1925583403437979</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04182540468794024</v>
+        <v>0.03601523756327319</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5321101281.809952</v>
+        <v>5381191985.098883</v>
       </c>
       <c r="F46" t="n">
-        <v>0.178659595046092</v>
+        <v>0.1449800325525374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05208262860559899</v>
+        <v>0.05115447395015509</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4006292987.83942</v>
+        <v>3962780922.601932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1417064517130899</v>
+        <v>0.1316503972529292</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0439997667072996</v>
+        <v>0.05203998083377048</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4166112225.490379</v>
+        <v>3052600995.668637</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07885242276001074</v>
+        <v>0.08798538706171355</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03359449803434318</v>
+        <v>0.0312385981803268</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1533232137.228536</v>
+        <v>1705322340.487855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1186016907017915</v>
+        <v>0.1348060450792301</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04461227626473225</v>
+        <v>0.03556286078196712</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3847646721.496653</v>
+        <v>3797880682.561465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1642962294314292</v>
+        <v>0.1140143980867495</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03278490168232615</v>
+        <v>0.04581820222249341</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1444420032.817335</v>
+        <v>1054076738.584984</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1792723672716366</v>
+        <v>0.1725330170504924</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03298512183124141</v>
+        <v>0.03398680172619131</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5047509411.823067</v>
+        <v>4380751865.311709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1109789533534817</v>
+        <v>0.08422549588712044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04595712159596204</v>
+        <v>0.03739601323081661</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3117639761.810833</v>
+        <v>3743679891.681201</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1326607054354873</v>
+        <v>0.1593808873772545</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02964374802683212</v>
+        <v>0.03477182749446379</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3977952871.592637</v>
+        <v>4703278655.759448</v>
       </c>
       <c r="F54" t="n">
-        <v>0.121986486992751</v>
+        <v>0.1118814658339179</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04694473444947806</v>
+        <v>0.03447765209468735</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4266172700.323618</v>
+        <v>3957263272.927732</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1520623680948938</v>
+        <v>0.1356358421871352</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02666277817464982</v>
+        <v>0.02560133222974497</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1702203009.400443</v>
+        <v>1820734743.428692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1243965774904679</v>
+        <v>0.1166267460307106</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0408247097171452</v>
+        <v>0.05314471457106183</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2866683315.351988</v>
+        <v>3897019610.647726</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1329862088208549</v>
+        <v>0.1547678600823418</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02312066007823323</v>
+        <v>0.01966556160176511</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1710946856.070943</v>
+        <v>1468218814.700501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1724681779375054</v>
+        <v>0.1632070735256094</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02935129854893883</v>
+        <v>0.03318614012711219</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4080856582.074955</v>
+        <v>5332217609.813281</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08904742915328989</v>
+        <v>0.1058226143877687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03320696181706802</v>
+        <v>0.03745268591264034</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2340785940.153348</v>
+        <v>3634886466.675975</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1302609225405661</v>
+        <v>0.1896164101861833</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02945144577476319</v>
+        <v>0.02916478472823035</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3211497344.523423</v>
+        <v>2898333824.853258</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1610968038992056</v>
+        <v>0.1344363277552488</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02598161688306438</v>
+        <v>0.03253457018462962</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1780913992.978821</v>
+        <v>1414814738.836515</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1372408273572314</v>
+        <v>0.1490816282277697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04208812641033417</v>
+        <v>0.04086560448075784</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3563553240.231564</v>
+        <v>4076022619.719452</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0739189149390425</v>
+        <v>0.1023753720142777</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03958190151137613</v>
+        <v>0.03613568797908129</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4957995554.289036</v>
+        <v>4658096582.472184</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1423436049999319</v>
+        <v>0.1490243698266691</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03543248485450936</v>
+        <v>0.02195573921091884</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4868500368.28681</v>
+        <v>5481014863.179609</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1719917008847904</v>
+        <v>0.1588711263445324</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02082993814253607</v>
+        <v>0.02830933829956154</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4183388117.678781</v>
+        <v>5350982252.897411</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1563996295839502</v>
+        <v>0.1280983542134979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04644424198946454</v>
+        <v>0.04118037331528773</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2917773512.778074</v>
+        <v>2182093064.253013</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07591502890537416</v>
+        <v>0.06335246613731971</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0354344635271539</v>
+        <v>0.0478182016589476</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4941111912.416244</v>
+        <v>5032733376.774146</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1035906521054275</v>
+        <v>0.1322855910118947</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03153328845889324</v>
+        <v>0.03949332087234784</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1897786141.04724</v>
+        <v>1623706626.250523</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1536017115703651</v>
+        <v>0.144254027611544</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05449121207102293</v>
+        <v>0.03940401649119195</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3213052905.353051</v>
+        <v>3370106070.849631</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08919831350783586</v>
+        <v>0.07448208253787672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04900848356344514</v>
+        <v>0.03542891829629739</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4364866867.33124</v>
+        <v>5639292115.217994</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1801612668557504</v>
+        <v>0.1386679650409347</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0227461225780058</v>
+        <v>0.02675726579027608</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1622882408.508692</v>
+        <v>1966823127.492875</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07948084932163589</v>
+        <v>0.07321912583987425</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0454171510939789</v>
+        <v>0.05042930286246755</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3005987969.599389</v>
+        <v>2900453388.580362</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07980062929288903</v>
+        <v>0.1105370656325382</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04049545923437421</v>
+        <v>0.05218688283167999</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2913874495.843826</v>
+        <v>2628089371.032673</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1471746784320071</v>
+        <v>0.1388399658650445</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03092484653449552</v>
+        <v>0.02834714772822675</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2359470742.975495</v>
+        <v>1959834364.227768</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1202522565861262</v>
+        <v>0.1360544702453092</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0257551146112223</v>
+        <v>0.03778425916207615</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4837095153.867882</v>
+        <v>5314927380.025427</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09430128048276983</v>
+        <v>0.116830261606985</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02338641832804715</v>
+        <v>0.02486863877031164</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1963501667.570687</v>
+        <v>1959587731.473878</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1528785459951938</v>
+        <v>0.1576265460666215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02976291275645239</v>
+        <v>0.03174031766958453</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3625547843.997527</v>
+        <v>4804829421.216158</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1284577083602414</v>
+        <v>0.1067419457851422</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03558105682975957</v>
+        <v>0.05553562557818732</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1393556540.288675</v>
+        <v>1895642796.777645</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1493233908655123</v>
+        <v>0.1431845597901994</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02720255599215475</v>
+        <v>0.03408836845594604</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4542822318.237605</v>
+        <v>5012426222.278086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1002388969059198</v>
+        <v>0.09454399033600906</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02568958988006053</v>
+        <v>0.03611816101528167</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3885159534.074995</v>
+        <v>3301873857.251425</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1192263902946424</v>
+        <v>0.131627681953155</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02905675070452135</v>
+        <v>0.02740679032408279</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4868801151.266509</v>
+        <v>4575951287.188779</v>
       </c>
       <c r="F82" t="n">
-        <v>0.216730459483636</v>
+        <v>0.2065935801730623</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0206811477899269</v>
+        <v>0.02463663280345071</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1913258318.116646</v>
+        <v>2212801261.54835</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1513289114935033</v>
+        <v>0.1126783983209478</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03472365974215018</v>
+        <v>0.03862528578724776</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2549775602.403368</v>
+        <v>2420886797.790984</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066443109809612</v>
+        <v>0.09181154322297337</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04243370088712865</v>
+        <v>0.03930895893451876</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2449518606.240501</v>
+        <v>2793184416.032234</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1333505107688333</v>
+        <v>0.1291289712026116</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04374839132539667</v>
+        <v>0.0450827093797995</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2103508527.410937</v>
+        <v>2079701484.598458</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1058510614522385</v>
+        <v>0.1555064429227282</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01860778397341929</v>
+        <v>0.02616154904378088</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1031989629.090626</v>
+        <v>978330977.8246145</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1185187727592532</v>
+        <v>0.1900625700426537</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0399998876077453</v>
+        <v>0.04307729977284602</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2886624176.992805</v>
+        <v>2455657483.821552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1347085017188041</v>
+        <v>0.1189146603646627</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03313500914027111</v>
+        <v>0.03769740580545375</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2474266481.746882</v>
+        <v>2146018749.908129</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1275597323070264</v>
+        <v>0.1311603930200331</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03941450429864863</v>
+        <v>0.02923825857230835</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2141330614.966814</v>
+        <v>1344636377.300087</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08392776746754038</v>
+        <v>0.111663511818997</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04664934782611711</v>
+        <v>0.03549768326055688</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1533924567.049531</v>
+        <v>1988646743.502572</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862684874422566</v>
+        <v>0.1345430075495214</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04110098611903664</v>
+        <v>0.0518752576799113</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2169020906.236279</v>
+        <v>2400122071.618808</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08578194165114487</v>
+        <v>0.084683204480539</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03321697289112509</v>
+        <v>0.03503224458523609</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3983741780.819746</v>
+        <v>4338717490.184845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1062653516119314</v>
+        <v>0.1316936949082557</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03966576550182066</v>
+        <v>0.04733650362947291</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2353206422.71925</v>
+        <v>2336662265.411909</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580817654501142</v>
+        <v>0.1358105417651087</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04245523709060287</v>
+        <v>0.04158178575519385</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2432487647.300754</v>
+        <v>2386502879.363579</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1101248284459502</v>
+        <v>0.09582917985851677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05049993660884169</v>
+        <v>0.04220340604271034</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2361060967.039619</v>
+        <v>1701357867.556677</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1146108438237678</v>
+        <v>0.09697041154051947</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04031084130854236</v>
+        <v>0.03853723375840461</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3661319349.944285</v>
+        <v>3545773254.95246</v>
       </c>
       <c r="F97" t="n">
-        <v>0.144567861748533</v>
+        <v>0.1591413234277352</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01849979860892335</v>
+        <v>0.01774742155654668</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2544538748.19349</v>
+        <v>2794355001.374372</v>
       </c>
       <c r="F98" t="n">
-        <v>0.100921710241813</v>
+        <v>0.09240440088278067</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02865571852049541</v>
+        <v>0.02249024520044054</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2871944204.322148</v>
+        <v>3373805430.651192</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09332457773342162</v>
+        <v>0.1062516362499692</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02924696569396066</v>
+        <v>0.03154214322734114</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3941677733.320813</v>
+        <v>4740147982.718109</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1217980964075632</v>
+        <v>0.1121156198970413</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02352697819122694</v>
+        <v>0.01938600161377283</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3121751302.287274</v>
+        <v>3227341830.804723</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2070535688244153</v>
+        <v>0.1945174534633614</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03950785094808432</v>
+        <v>0.05222109802584229</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_304.xlsx
+++ b/output/fit_clients/fit_round_304.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1579398019.063947</v>
+        <v>2355649231.834342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09032743689689908</v>
+        <v>0.09989836422068175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03991822638535286</v>
+        <v>0.04005017874477215</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1595967532.747496</v>
+        <v>2105854177.275123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1236220468599904</v>
+        <v>0.1139206585877016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03529044697273192</v>
+        <v>0.04223969215216093</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3717664217.157412</v>
+        <v>3171757278.619469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1366206514855911</v>
+        <v>0.1097647893080074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03016935163170218</v>
+        <v>0.02379748993606094</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>160</v>
+      </c>
+      <c r="J4" t="n">
+        <v>303</v>
+      </c>
+      <c r="K4" t="n">
+        <v>52.64041584585519</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3875352620.572786</v>
+        <v>2743302970.512216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07217999773717387</v>
+        <v>0.1014358436625953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03484679703786108</v>
+        <v>0.0464874341582862</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2545332399.837436</v>
+        <v>2432576836.253618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09130867223205846</v>
+        <v>0.1063982125447547</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04888130243427314</v>
+        <v>0.04588194665548423</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2828143776.077054</v>
+        <v>3150101089.293437</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08505411432106798</v>
+        <v>0.08799984672550763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04658388929344559</v>
+        <v>0.03633739336009152</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3971618341.298102</v>
+        <v>3646841068.103079</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1874484843021068</v>
+        <v>0.2047383118541161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02768691459265202</v>
+        <v>0.02180989207435206</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>304</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1408366810.889714</v>
+        <v>1816731351.191947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1357878757932678</v>
+        <v>0.1799322735105666</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03047282377022768</v>
+        <v>0.02961485827285578</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4448426202.728127</v>
+        <v>4347617607.733012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1837813698235451</v>
+        <v>0.2141365498837674</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04459453383771319</v>
+        <v>0.04930646593997325</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>268</v>
+      </c>
+      <c r="J10" t="n">
+        <v>304</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3733897218.413359</v>
+        <v>3005248119.54141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.169819224038347</v>
+        <v>0.1784322704343032</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03219071598457092</v>
+        <v>0.03728011964219488</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>122</v>
+      </c>
+      <c r="J11" t="n">
+        <v>303</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.93382681564273</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2791696382.507799</v>
+        <v>2302518906.130785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1224120124952959</v>
+        <v>0.1985875341444825</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04831395313884147</v>
+        <v>0.04331653354180675</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3722613830.569237</v>
+        <v>5175635666.222355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06538864224475055</v>
+        <v>0.09724054774995296</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02055732098148227</v>
+        <v>0.02454174830109054</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>156</v>
+      </c>
+      <c r="J13" t="n">
+        <v>304</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3888387195.914791</v>
+        <v>2561792327.584295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677805177786789</v>
+        <v>0.1746577849354297</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03089360290576188</v>
+        <v>0.03289526949786591</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1411682929.533006</v>
+        <v>1526402171.314687</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0879611422944888</v>
+        <v>0.1001362915281965</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04796065743421559</v>
+        <v>0.04134285749776011</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2354979462.680801</v>
+        <v>2089308983.672653</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09260812218945393</v>
+        <v>0.0849761795322027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03611311114182957</v>
+        <v>0.03165259240311775</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3508919257.592175</v>
+        <v>3875147046.86177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1256079238645471</v>
+        <v>0.1130506868087016</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03370130336855391</v>
+        <v>0.05061007722207778</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>144</v>
+      </c>
+      <c r="J17" t="n">
+        <v>303</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.39985617218726</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3020017779.288575</v>
+        <v>2529637725.616395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1190438001919153</v>
+        <v>0.1680891689109321</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03433584597005889</v>
+        <v>0.02323085513791211</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1357691956.082941</v>
+        <v>948029842.0002593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1769046460980515</v>
+        <v>0.1735848295935292</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01658623542260201</v>
+        <v>0.02410766625333199</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2773166930.448257</v>
+        <v>2193661680.204638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056288425078944</v>
+        <v>0.1038536078436039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03079991538885649</v>
+        <v>0.0269735381593337</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2670587969.280557</v>
+        <v>1937243906.252932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07177425325381773</v>
+        <v>0.09652282020053859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04496780066541855</v>
+        <v>0.04154542795406051</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2907732293.763386</v>
+        <v>2937358380.005116</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1381745695226567</v>
+        <v>0.1312833291856796</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05345169607279188</v>
+        <v>0.04325735850858929</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>976166058.1789368</v>
+        <v>1398892595.138288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1678175407301085</v>
+        <v>0.1162764470709878</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0485901428726009</v>
+        <v>0.05056312058163481</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4069140467.632879</v>
+        <v>3606730929.027118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1211789280524287</v>
+        <v>0.1085487409820969</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03021532021000712</v>
+        <v>0.02524571306458832</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>89</v>
+      </c>
+      <c r="J24" t="n">
+        <v>304</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>915208737.1789188</v>
+        <v>1109565418.888007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1019555012642368</v>
+        <v>0.07818750321345147</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01915347006134837</v>
+        <v>0.02734391551329577</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1002765911.631531</v>
+        <v>1119017146.937642</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07809444967402539</v>
+        <v>0.1137373400350009</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02459267857885761</v>
+        <v>0.03035223726622685</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2992682285.302335</v>
+        <v>2912778577.557461</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1306285244219886</v>
+        <v>0.132830855438304</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02157691548725522</v>
+        <v>0.02286781537905843</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>126</v>
+      </c>
+      <c r="J27" t="n">
+        <v>303</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.44982189348507</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3882027492.961535</v>
+        <v>3874094242.160474</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1277148734897328</v>
+        <v>0.1507937871638139</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03435876256005141</v>
+        <v>0.03757888130904154</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>63</v>
+      </c>
+      <c r="J28" t="n">
+        <v>304</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5457899888.614129</v>
+        <v>4289634048.948253</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1400684408299849</v>
+        <v>0.124105454481818</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0383492681988527</v>
+        <v>0.03463073666715832</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>285</v>
+      </c>
+      <c r="J29" t="n">
+        <v>303</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.20788799953131</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1842295134.050155</v>
+        <v>2283650143.822105</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1093817436002122</v>
+        <v>0.1226460874164023</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03941001301958492</v>
+        <v>0.02436896615105813</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1261487457.869739</v>
+        <v>955980652.8522003</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07903272603121538</v>
+        <v>0.07885627726961075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05236087313911181</v>
+        <v>0.0477603618818259</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1313995601.979187</v>
+        <v>1205464022.75101</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1162821371275849</v>
+        <v>0.08349709169992867</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03372272201423596</v>
+        <v>0.02665120152979021</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3118089976.986077</v>
+        <v>3019321428.424238</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1710545647683198</v>
+        <v>0.1299200917639629</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05949960565509278</v>
+        <v>0.05867065023094125</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1540941260.111948</v>
+        <v>1338938242.803103</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1012429982603644</v>
+        <v>0.08496898911654067</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02405676846154512</v>
+        <v>0.01805978934214028</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1140065370.283852</v>
+        <v>1277262486.434025</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09871771967898857</v>
+        <v>0.1010431919432004</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03934258107195282</v>
+        <v>0.04439554899803279</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2220384993.318659</v>
+        <v>2693080773.629343</v>
       </c>
       <c r="F36" t="n">
-        <v>0.126072621443377</v>
+        <v>0.1566215756240852</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02435640890439086</v>
+        <v>0.01996925199550101</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1898873748.217081</v>
+        <v>2766804510.712812</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1118499448113798</v>
+        <v>0.09755098022281813</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03521683133625851</v>
+        <v>0.03285751663441991</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1580203116.947093</v>
+        <v>1413186961.957565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09196631939753735</v>
+        <v>0.1203214381566484</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03234899977858794</v>
+        <v>0.03678478215531155</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2202013257.706971</v>
+        <v>1887297634.186425</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649318383502936</v>
+        <v>0.1350430456839473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03192941463858642</v>
+        <v>0.03142430254087846</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1530892440.658409</v>
+        <v>1535483067.568408</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1337889517268354</v>
+        <v>0.1117281380099524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03712375473689052</v>
+        <v>0.05049007331638947</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2822134155.206684</v>
+        <v>2608013457.465593</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1041978750536105</v>
+        <v>0.1588627018614722</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04459357337416094</v>
+        <v>0.03723847221645286</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3497074249.90596</v>
+        <v>3662455364.511479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.127475200116946</v>
+        <v>0.07957908633431572</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03304076921914204</v>
+        <v>0.03463678001269804</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>125</v>
+      </c>
+      <c r="J42" t="n">
+        <v>304</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2490600719.285345</v>
+        <v>2223891037.283004</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2013353408372729</v>
+        <v>0.1984729644577199</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01807295865478891</v>
+        <v>0.02276560860352918</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1663745461.117301</v>
+        <v>2121999265.803131</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09060705489464251</v>
+        <v>0.08965966952569193</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03153727856414747</v>
+        <v>0.03343305338825139</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1558055253.609924</v>
+        <v>1935407204.933424</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1925583403437979</v>
+        <v>0.1534114588380565</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03601523756327319</v>
+        <v>0.03706863542737687</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5381191985.098883</v>
+        <v>4617705437.99684</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1449800325525374</v>
+        <v>0.1643514582612936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05115447395015509</v>
+        <v>0.04191937125291504</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>180</v>
+      </c>
+      <c r="J46" t="n">
+        <v>304</v>
+      </c>
+      <c r="K46" t="n">
+        <v>83.84005792614809</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3962780922.601932</v>
+        <v>4683704575.828527</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1316503972529292</v>
+        <v>0.1259142157838022</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05203998083377048</v>
+        <v>0.0415305383880271</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>135</v>
+      </c>
+      <c r="J47" t="n">
+        <v>304</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3052600995.668637</v>
+        <v>4305262547.770533</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08798538706171355</v>
+        <v>0.1072185188078097</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0312385981803268</v>
+        <v>0.0369043356842165</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>151</v>
+      </c>
+      <c r="J48" t="n">
+        <v>304</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1705322340.487855</v>
+        <v>1289284876.643278</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1348060450792301</v>
+        <v>0.1792350619110525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03556286078196712</v>
+        <v>0.03333475495404897</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3797880682.561465</v>
+        <v>3276001104.376942</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1140143980867495</v>
+        <v>0.113382654145051</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04581820222249341</v>
+        <v>0.04995947384446147</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1054076738.584984</v>
+        <v>1212527699.997347</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1725330170504924</v>
+        <v>0.1486948012156365</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03398680172619131</v>
+        <v>0.03426980270964946</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4380751865.311709</v>
+        <v>3935574599.955286</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08422549588712044</v>
+        <v>0.1271030035579712</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03739601323081661</v>
+        <v>0.06162986008619459</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>186</v>
+      </c>
+      <c r="J52" t="n">
+        <v>304</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3743679891.681201</v>
+        <v>3683298749.707329</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1593808873772545</v>
+        <v>0.1887281089465527</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03477182749446379</v>
+        <v>0.02636167653281602</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>304</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2327,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4703278655.759448</v>
+        <v>3411990010.135534</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1118814658339179</v>
+        <v>0.1131074155072098</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03447765209468735</v>
+        <v>0.04673100269245813</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>159</v>
+      </c>
+      <c r="J54" t="n">
+        <v>302</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2362,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3957263272.927732</v>
+        <v>4426922585.808907</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1356358421871352</v>
+        <v>0.1372449131249218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02560133222974497</v>
+        <v>0.03029371494076436</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>140</v>
+      </c>
+      <c r="J55" t="n">
+        <v>304</v>
+      </c>
+      <c r="K55" t="n">
+        <v>83.09479984722059</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2405,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1820734743.428692</v>
+        <v>1176582073.349811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1166267460307106</v>
+        <v>0.1294153398091321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05314471457106183</v>
+        <v>0.05800556158636756</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3897019610.647726</v>
+        <v>3416090043.306122</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1547678600823418</v>
+        <v>0.1728590649650193</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01966556160176511</v>
+        <v>0.02205752051708845</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>125</v>
+      </c>
+      <c r="J57" t="n">
+        <v>302</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1468218814.700501</v>
+        <v>1807841430.205398</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1632070735256094</v>
+        <v>0.1332568834109046</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03318614012711219</v>
+        <v>0.02974840979895128</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5332217609.813281</v>
+        <v>4589639727.432568</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058226143877687</v>
+        <v>0.08426405850926728</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03745268591264034</v>
+        <v>0.04058181186676488</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>147</v>
+      </c>
+      <c r="J59" t="n">
+        <v>303</v>
+      </c>
+      <c r="K59" t="n">
+        <v>78.14653561349277</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3634886466.675975</v>
+        <v>3639573838.211401</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1896164101861833</v>
+        <v>0.1914822670076576</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02916478472823035</v>
+        <v>0.03149858783252311</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>50</v>
+      </c>
+      <c r="J60" t="n">
+        <v>304</v>
+      </c>
+      <c r="K60" t="n">
+        <v>88.02799315828452</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2898333824.853258</v>
+        <v>2340112530.910235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1344363277552488</v>
+        <v>0.1709791586910838</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03253457018462962</v>
+        <v>0.02910294043622246</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1414814738.836515</v>
+        <v>1844058173.160475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1490816282277697</v>
+        <v>0.162886625748167</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04086560448075784</v>
+        <v>0.04581316673470501</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4076022619.719452</v>
+        <v>5073551820.015259</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1023753720142777</v>
+        <v>0.06537956442012474</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03613568797908129</v>
+        <v>0.03254672764734674</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>148</v>
+      </c>
+      <c r="J63" t="n">
+        <v>303</v>
+      </c>
+      <c r="K63" t="n">
+        <v>78.31136746537918</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4658096582.472184</v>
+        <v>4796343945.514759</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490243698266691</v>
+        <v>0.1844175605891637</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02195573921091884</v>
+        <v>0.02743575512122699</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>149</v>
+      </c>
+      <c r="J64" t="n">
+        <v>304</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5481014863.179609</v>
+        <v>4671926986.47772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1588711263445324</v>
+        <v>0.1164222675288672</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02830933829956154</v>
+        <v>0.02646439158163346</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>242</v>
+      </c>
+      <c r="J65" t="n">
+        <v>303</v>
+      </c>
+      <c r="K65" t="n">
+        <v>81.3887019846152</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5350982252.897411</v>
+        <v>4429930152.570933</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1280983542134979</v>
+        <v>0.1014447681213531</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04118037331528773</v>
+        <v>0.04987881462830065</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>150</v>
+      </c>
+      <c r="J66" t="n">
+        <v>303</v>
+      </c>
+      <c r="K66" t="n">
+        <v>74.81182674018592</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2182093064.253013</v>
+        <v>2877911553.773344</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06335246613731971</v>
+        <v>0.08699634035882203</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0478182016589476</v>
+        <v>0.03256751218704001</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5032733376.774146</v>
+        <v>5025780833.523357</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1322855910118947</v>
+        <v>0.114274649666941</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03949332087234784</v>
+        <v>0.03124625694195286</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>162</v>
+      </c>
+      <c r="J68" t="n">
+        <v>304</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.27934357907215</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1623706626.250523</v>
+        <v>1776988284.74657</v>
       </c>
       <c r="F69" t="n">
-        <v>0.144254027611544</v>
+        <v>0.1682193921593183</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03940401649119195</v>
+        <v>0.03918379369421961</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3370106070.849631</v>
+        <v>2543728146.990305</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07448208253787672</v>
+        <v>0.0709493231141662</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03542891829629739</v>
+        <v>0.03556125472420006</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="n">
+        <v>34.41804146814004</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5639292115.217994</v>
+        <v>3816338933.091643</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1386679650409347</v>
+        <v>0.1537249465874693</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02675726579027608</v>
+        <v>0.02704968117664123</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>227</v>
+      </c>
+      <c r="J71" t="n">
+        <v>303</v>
+      </c>
+      <c r="K71" t="n">
+        <v>78.456629695619</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1966823127.492875</v>
+        <v>1712331096.705354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07321912583987425</v>
+        <v>0.1028954547073848</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05042930286246755</v>
+        <v>0.03825524221288081</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2900453388.580362</v>
+        <v>2971560604.188714</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105370656325382</v>
+        <v>0.07546181577954923</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05218688283167999</v>
+        <v>0.03233322571563991</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2628089371.032673</v>
+        <v>3549627829.746294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1388399658650445</v>
+        <v>0.1263764374948863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02834714772822675</v>
+        <v>0.02433190795159925</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1959834364.227768</v>
+        <v>2147663081.373019</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1360544702453092</v>
+        <v>0.1621741983152203</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03778425916207615</v>
+        <v>0.0349369910042311</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5314927380.025427</v>
+        <v>3835875520.579301</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116830261606985</v>
+        <v>0.1086417615689475</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02486863877031164</v>
+        <v>0.02318387381790426</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>143</v>
+      </c>
+      <c r="J76" t="n">
+        <v>303</v>
+      </c>
+      <c r="K76" t="n">
+        <v>76.21694038860602</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1959587731.473878</v>
+        <v>1488243339.47446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1576265460666215</v>
+        <v>0.1851950686116921</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03174031766958453</v>
+        <v>0.03049059416666322</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4804829421.216158</v>
+        <v>3783473350.938413</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1067419457851422</v>
+        <v>0.113336937879231</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05553562557818732</v>
+        <v>0.05275455405062469</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>151</v>
+      </c>
+      <c r="J78" t="n">
+        <v>303</v>
+      </c>
+      <c r="K78" t="n">
+        <v>78.63541180711792</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1895642796.777645</v>
+        <v>1469639880.478782</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1431845597901994</v>
+        <v>0.1245443383744669</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03408836845594604</v>
+        <v>0.02795473804808395</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5012426222.278086</v>
+        <v>4861157393.735277</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09454399033600906</v>
+        <v>0.07892590077654875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03611816101528167</v>
+        <v>0.03577680284863246</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>148</v>
+      </c>
+      <c r="J80" t="n">
+        <v>304</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3301873857.251425</v>
+        <v>5204176074.216281</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131627681953155</v>
+        <v>0.1130961925776074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02740679032408279</v>
+        <v>0.03122111659876185</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>140</v>
+      </c>
+      <c r="J81" t="n">
+        <v>303</v>
+      </c>
+      <c r="K81" t="n">
+        <v>74.30299500222098</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4575951287.188779</v>
+        <v>5336299847.80232</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2065935801730623</v>
+        <v>0.1341547609017949</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02463663280345071</v>
+        <v>0.02503880588580107</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>221</v>
+      </c>
+      <c r="J82" t="n">
+        <v>304</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2212801261.54835</v>
+        <v>2450667870.939754</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126783983209478</v>
+        <v>0.1150789741336744</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03862528578724776</v>
+        <v>0.03720246052401148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2420886797.790984</v>
+        <v>2175801039.499555</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09181154322297337</v>
+        <v>0.09764081105099236</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03930895893451876</v>
+        <v>0.03685893673976708</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2793184416.032234</v>
+        <v>3378645426.150228</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1291289712026116</v>
+        <v>0.1740872589137611</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0450827093797995</v>
+        <v>0.05004213200178087</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2079701484.598458</v>
+        <v>2796433316.233953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555064429227282</v>
+        <v>0.1116215253596169</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02616154904378088</v>
+        <v>0.02123471408217602</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>978330977.8246145</v>
+        <v>1276781233.510132</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1900625700426537</v>
+        <v>0.1460072944901852</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04307729977284602</v>
+        <v>0.03583803902574745</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2455657483.821552</v>
+        <v>2358019915.247049</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1189146603646627</v>
+        <v>0.1260887079603043</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03769740580545375</v>
+        <v>0.03813823866341799</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2146018749.908129</v>
+        <v>3227398218.628727</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1311603930200331</v>
+        <v>0.1598916794665636</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02923825857230835</v>
+        <v>0.02953497157370003</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1344636377.300087</v>
+        <v>1596164993.622416</v>
       </c>
       <c r="F90" t="n">
-        <v>0.111663511818997</v>
+        <v>0.1107650694034654</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03549768326055688</v>
+        <v>0.04967202874095775</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1988646743.502572</v>
+        <v>2066988555.003611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1345430075495214</v>
+        <v>0.1604160070867046</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0518752576799113</v>
+        <v>0.06090073161122785</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2400122071.618808</v>
+        <v>2466190209.434412</v>
       </c>
       <c r="F92" t="n">
-        <v>0.084683204480539</v>
+        <v>0.07421128674683307</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03503224458523609</v>
+        <v>0.03066631081071174</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4338717490.184845</v>
+        <v>4665372091.990932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1316936949082557</v>
+        <v>0.1271799093178021</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04733650362947291</v>
+        <v>0.04512208988520972</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>135</v>
+      </c>
+      <c r="J93" t="n">
+        <v>304</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2336662265.411909</v>
+        <v>1973599449.857907</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1358105417651087</v>
+        <v>0.1106659360101271</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04158178575519385</v>
+        <v>0.03775052944375164</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2386502879.363579</v>
+        <v>2306045293.07054</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09582917985851677</v>
+        <v>0.09560037334044762</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04220340604271034</v>
+        <v>0.04314045278607352</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1701357867.556677</v>
+        <v>2296404705.852357</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09697041154051947</v>
+        <v>0.1143580176338899</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03853723375840461</v>
+        <v>0.0463927174305777</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3545773254.95246</v>
+        <v>5344031640.680906</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1591413234277352</v>
+        <v>0.1393717991757557</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01774742155654668</v>
+        <v>0.02479102767855794</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>152</v>
+      </c>
+      <c r="J97" t="n">
+        <v>304</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2794355001.374372</v>
+        <v>3102504064.36609</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09240440088278067</v>
+        <v>0.07925773715077743</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02249024520044054</v>
+        <v>0.02085967983060279</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>75</v>
+      </c>
+      <c r="J98" t="n">
+        <v>303</v>
+      </c>
+      <c r="K98" t="n">
+        <v>52.11914815388432</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3373805430.651192</v>
+        <v>2448658495.936337</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1062516362499692</v>
+        <v>0.1421519883917943</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03154214322734114</v>
+        <v>0.03342702610969763</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4740147982.718109</v>
+        <v>4691181859.973953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121156198970413</v>
+        <v>0.1272511965810139</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01938600161377283</v>
+        <v>0.02793938746052605</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>132</v>
+      </c>
+      <c r="J100" t="n">
+        <v>304</v>
+      </c>
+      <c r="K100" t="n">
+        <v>83.24928199419905</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3227341830.804723</v>
+        <v>3468969122.419122</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1945174534633614</v>
+        <v>0.1905267483199377</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05222109802584229</v>
+        <v>0.05103958999427861</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
